--- a/data/20250515_KTX-DATA_EMU.xlsx
+++ b/data/20250515_KTX-DATA_EMU.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\철도공사\ragplus\ragflow-plus\rag_batch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839A027F-68C5-4D44-923F-20301B742841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F87C5A5-3B9F-4945-AFCA-86991D5DAE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{620EDE04-8932-45BB-8520-6B2917E630E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{620EDE04-8932-45BB-8520-6B2917E630E3}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
     <sheet name="KTX-EMU 매뉴얼" sheetId="2" r:id="rId2"/>
     <sheet name="2. KTX-EMU 외주수선설명서" sheetId="3" r:id="rId3"/>
+    <sheet name="3. KTX-EMU 시험조사" sheetId="4" r:id="rId4"/>
+    <sheet name="6. KTX-이음 소프트웨어" sheetId="8" r:id="rId5"/>
+    <sheet name="7. KTX-EMU 신뢰성분석" sheetId="6" r:id="rId6"/>
+    <sheet name="8. KTX-이음 유지보수성 입증 자료(30량)" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="188">
   <si>
     <t>고속차량(동력분산식)KTX-EMU 기술관리 자료 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +274,520 @@
   </si>
   <si>
     <t>K22-2023-01호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">KTX-EMU 기술개발 및 개조개량 이력 및 현황 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ K20(이음), K22(청룡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리번호(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[시험조사영역]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험조사추진내역(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험조사번호(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당자재(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검토소속(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착수일(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료일(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[확대적용 영역]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확대적용추진내역(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술변경 적용번호(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착수일(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료일(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[기술변경 및 후속조치 진행표]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험조사(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도면(14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자재구매(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;확대적용 MAP&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품수선(!6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일제적용(17)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 매뉴얼개정(18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신뢰성분석(19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종완료(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 R&amp;D 철도차량 부품개발사업 관련 현차시험 심의회의 결과알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고속차량처-1294(2024.03.14.)호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTX-이름 통합 현차시험 관련 매뉴얼 배포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철도차량 부품개발사업단TF-261(2024.04.08.)호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTX-이음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTX-이음 유지보수성 입증(30량)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지보수성 입증 장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 영상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인원(명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기간(H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고(시험일/장소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전원장치 냉각팬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통로 연결기(페어링)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최거,취부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>6.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/30(강릉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/15(강릉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTX-EMU 신뢰성분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자재번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품명링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경(결론(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반영여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23/1/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTM안테나 신뢰성분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1085995</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발리스안테나 BTM SGP00261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고장수리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존품과 개선품 혼용 취부로, 순차적으로 교환 필요(개선품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고속차량(KTX-산천) 유지보수회의 결과 알림. (BTM안테나)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고속차량처-687(2023.02.10.)호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보수품 구매시 V15버전 이상 개선품 구매 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021부터 고장이 증가함에 따라, 선제적인 장애예방을 위한 교환 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTX-이음 소프트웨어 형상기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어
+탑재 장치명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하위제어장치
+Control unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소프트웨어
+관리번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작용차호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M'1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M'2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/W
+최신 버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용 버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공급사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어 확인방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDCS
+DU2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE
+BOOK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REV.
+TAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEGMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1MB3-CRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNH1601-SW-0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS에너텍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iFE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNH1601-SW-0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승강문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ TDCS DU2 확인시 미나얼미나얼미;ㅏ넝리ㅏ;ㅁ넝리ㅏㅁ넝리;ㅏㅓㅁㄴ이;ㅏㄹ;ㅓㅁ니ㅏ;ㅇ러미;ㅏ넝림나ㅓㅇ리;마넝리ㅏ;;먼ㅇ;ㅣ라ㅓㅁㄴ이;ㅏ럼ㄴ이ㅏ;럼ㄴ이;라ㅓ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목차로 돌아가기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,7 +846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,6 +858,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -658,7 +1188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3A28F4-D46F-4AEA-A3E5-58BF5A35D1C6}">
   <dimension ref="B2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -700,7 +1230,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -938,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2981920D-8D29-4BDB-B9FD-ED414B347D1B}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -961,46 +1491,34 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>54</v>
+      <c r="A2" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1008,23 +1526,892 @@
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{B50ED20D-6F88-4719-9776-80AE11A0F78D}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{F07870FF-6382-4B2F-9C72-752F80F7986B}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{B50ED20D-6F88-4719-9776-80AE11A0F78D}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{F07870FF-6382-4B2F-9C72-752F80F7986B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A989B6-703B-402F-8781-344DDA789B3E}">
+  <dimension ref="A1:U14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T5" t="s">
+        <v>90</v>
+      </c>
+      <c r="U5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{7D7731CB-2B00-40E3-960E-9F8918DB5025}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{AE76C866-00A6-4DC7-AB56-813D4C9A5610}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{2F6E94A8-C731-410B-AC2F-D8CD08809A52}"/>
+    <hyperlink ref="C13" r:id="rId4" xr:uid="{2FB63A87-1D63-4CB5-9681-4F9057824ADE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0917B56-D843-4967-905C-F8CE72598114}">
+  <dimension ref="A1:S8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7">
+        <v>1.04</v>
+      </c>
+      <c r="L7">
+        <v>1.04</v>
+      </c>
+      <c r="M7" t="str">
+        <f>IF(K7=L7,"일치","불일치")</f>
+        <v>일치</v>
+      </c>
+      <c r="N7" t="s">
+        <v>180</v>
+      </c>
+      <c r="O7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" t="s">
+        <v>179</v>
+      </c>
+      <c r="K8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M8" t="str">
+        <f>IF(K8=L8,"일치","불일치")</f>
+        <v>불일치</v>
+      </c>
+      <c r="N8" t="s">
+        <v>181</v>
+      </c>
+      <c r="O8" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="D1:S3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="O4:R5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84470F8-18AC-4759-9122-8C7AB9A5479D}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="21.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0243C9C3-E2E8-4FA5-91D3-AEFF5F36E6EA}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7">
+        <v>2023</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{25D8F748-532E-4138-91BC-97CD0AB0C748}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{357AD582-013D-4277-888C-A933E9B079C1}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{478F01FD-1389-43C5-A40A-53830D44F0A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
